--- a/ACCORD-TAMPU.xlsx
+++ b/ACCORD-TAMPU.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iomar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iomar\Documents\GitHub\ppp_fiis_unas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6653E93-3860-4DDD-B956-6FAA16DDEED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1605F682-A599-4800-A533-182666A16B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1A140209-DFF9-40AB-B50A-440DF0C09FFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="15" xr2:uid="{1A140209-DFF9-40AB-B50A-440DF0C09FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="22-05-2023" sheetId="1" r:id="rId1"/>
     <sheet name="25-05-2023" sheetId="2" r:id="rId2"/>
     <sheet name="26-05-2023" sheetId="3" r:id="rId3"/>
+    <sheet name="30-05-2023" sheetId="4" r:id="rId4"/>
+    <sheet name="Salida" sheetId="5" r:id="rId5"/>
+    <sheet name="Adelanto" sheetId="6" r:id="rId6"/>
+    <sheet name="Encomiendas" sheetId="7" r:id="rId7"/>
+    <sheet name="Dashboard" sheetId="8" r:id="rId8"/>
+    <sheet name="Facturación" sheetId="9" r:id="rId9"/>
+    <sheet name="Seguimiento de encomiendas" sheetId="10" r:id="rId10"/>
+    <sheet name="Grid" sheetId="11" r:id="rId11"/>
+    <sheet name="Registro de huespedes" sheetId="12" r:id="rId12"/>
+    <sheet name="Servicio SMTP" sheetId="13" r:id="rId13"/>
+    <sheet name="Despliegue de los proyectos" sheetId="25" r:id="rId14"/>
+    <sheet name="CU" sheetId="14" r:id="rId15"/>
+    <sheet name="Hoja21" sheetId="26" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,76 +51,595 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>Salidas y adelanto va el tesoreria</t>
-  </si>
-  <si>
-    <t>Desabilitar nota de credito</t>
-  </si>
-  <si>
-    <t>Cambia ventas a facturacion</t>
-  </si>
-  <si>
-    <t>No reconoce la denominacion al seleccionar un producto en venta</t>
-  </si>
-  <si>
-    <t>Cambir el icono de la pagina</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="194">
   <si>
     <t>Correcciones</t>
   </si>
   <si>
-    <t>En ventas luego agregar una campo de descripcion adicional, guardar en la db en la tabla detalle de facturacion</t>
-  </si>
-  <si>
-    <t>Corregir, permitir registrar las de un cliente con tipo de documento otros en ventas</t>
-  </si>
-  <si>
-    <t>Al facturar debe salir el ruc con el nombre de la empresa</t>
-  </si>
-  <si>
-    <t>Cambiado desde GUI</t>
-  </si>
-  <si>
-    <t>Faltaba parseint</t>
-  </si>
-  <si>
-    <t>Cambiado des vscode</t>
-  </si>
-  <si>
-    <t>Api corregido, valida si el tipo documento el otros para permitir mas de uno</t>
-  </si>
-  <si>
-    <t>otro caso mas, no debe permitir eliminar el conductor si este conductor ya tiene enlazado algun otro registro</t>
-  </si>
-  <si>
     <t>Front corregido</t>
   </si>
   <si>
-    <t>El tipo comprobante ponerse en factura al seleccionar usuario con ruc</t>
-  </si>
-  <si>
-    <t>Validando en el backend</t>
-  </si>
-  <si>
-    <t>Cambios aplicados en el front, en el back y la db</t>
-  </si>
-  <si>
     <t>Modificar la subida de cerficado, mostrar nombre</t>
   </si>
   <si>
     <t>Corregir, cuando se actualiza la pagina no vuelve a cargar</t>
   </si>
   <si>
-    <t>Mostrar nombre de usuario</t>
+    <t>Front editado</t>
+  </si>
+  <si>
+    <t>Front y backend corregido</t>
+  </si>
+  <si>
+    <t>Mostrar nombre de usuario logeado</t>
+  </si>
+  <si>
+    <t>Reporte de salidas</t>
+  </si>
+  <si>
+    <t>Repporte de encomiendas</t>
+  </si>
+  <si>
+    <t>reporte de adelanto</t>
+  </si>
+  <si>
+    <t>T2. Desabilitar nota de credito</t>
+  </si>
+  <si>
+    <t>T1. Salidas y adelanto va el tesoreria</t>
+  </si>
+  <si>
+    <t>T3. Cambia ventas a facturacion</t>
+  </si>
+  <si>
+    <t>T4. No reconoce la denominacion al seleccionar un producto en venta</t>
+  </si>
+  <si>
+    <t>T5. Cambir el icono de la pagina</t>
+  </si>
+  <si>
+    <t>T6. En ventas luego agregar una campo de descripcion adicional, guardar en la db en la tabla detalle de facturacion</t>
+  </si>
+  <si>
+    <t>T7. Corregir, permitir registrar las de un cliente con tipo de documento otros en ventas</t>
+  </si>
+  <si>
+    <t>T8. El tipo comprobante ponerse en factura al seleccionar usuario con ruc</t>
+  </si>
+  <si>
+    <t>T9. Al facturar debe salir el ruc con el nombre de la empresa</t>
+  </si>
+  <si>
+    <t>T10. otro caso mas, no debe permitir eliminar el conductor si este conductor ya tiene enlazado algun otro registro</t>
+  </si>
+  <si>
+    <t>T1. Cambiado desde GUI</t>
+  </si>
+  <si>
+    <t>T2. Cambiado desde GUI</t>
+  </si>
+  <si>
+    <t>T3. Cambiado desde GUI</t>
+  </si>
+  <si>
+    <t>T4. Faltaba parseint</t>
+  </si>
+  <si>
+    <t>T6. Cambios aplicados en el front, en el back y la db</t>
+  </si>
+  <si>
+    <t>T7. Api corregido, valida si el tipo documento el otros para permitir mas de uno</t>
+  </si>
+  <si>
+    <t>T8. Front corregido</t>
+  </si>
+  <si>
+    <t>T9. Front corregido</t>
+  </si>
+  <si>
+    <t>T10. Validando en el backend</t>
+  </si>
+  <si>
+    <t>T5. Cambiado desde vscode</t>
+  </si>
+  <si>
+    <t>idsalidavehiculo: llave primaria</t>
+  </si>
+  <si>
+    <t>idtransportista: se guarda el id del transportista</t>
+  </si>
+  <si>
+    <t>correlativo: se guardo el correlativo generado por dia</t>
+  </si>
+  <si>
+    <t>monto: se guarda e monto a corbar por encomiendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estado: estado de salida </t>
+  </si>
+  <si>
+    <t>eliminado = -1</t>
+  </si>
+  <si>
+    <t>activo=0</t>
+  </si>
+  <si>
+    <t>editar: permitir actualizar idtransportista y monto</t>
+  </si>
+  <si>
+    <t>Eliminar: Cambiar de estado a -1</t>
+  </si>
+  <si>
+    <t>Luego de cada registro o actualización recargar automaticamente los datos de la tabla</t>
+  </si>
+  <si>
+    <t>idadelantovehiculo: llave primaria</t>
+  </si>
+  <si>
+    <t>O. Crear el submodulo de salida y asignarla al modulo tesoreria</t>
+  </si>
+  <si>
+    <t>T2. Crear el crud de salida</t>
+  </si>
+  <si>
+    <t>T4. Crear el submódulo de salida y signarla al módulo tesoreria</t>
+  </si>
+  <si>
+    <t>O. Crear el submodulo de adelanto y asignarla al modulo tesoreria</t>
+  </si>
+  <si>
+    <t>T2. Crear el crud de adelanto</t>
+  </si>
+  <si>
+    <t>O. Crear el submódulo de encomiendas y asignarla al modulo de procesos</t>
+  </si>
+  <si>
+    <t>Venta de pasajes, se mostrará el numero de ventas del los pasajes realizadas en el mes.</t>
+  </si>
+  <si>
+    <t>Encomiendas, se mostrará en numero de encomiendas realizadas en el mes</t>
+  </si>
+  <si>
+    <t>Venta de garaje, se mostrará el numero de ventas del servicio de garaje realizadas en el mes.</t>
+  </si>
+  <si>
+    <t>Adelantos y salidas, se mostrará las ultimos 12 adelantos y salidas de la sucursal del usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O. Acoplar los reportes del submódulo de dashboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> el vehiculo, chofer y fecha de salida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O. Nuevas funcionalidades al submódulo facturación </t>
+  </si>
+  <si>
+    <t>Agregar columna de descripcion adicinal en la tabla de la base de datos</t>
+  </si>
+  <si>
+    <t>T2. Concatenar el detalle del producto con el detalle adicional en el modal de editar factura</t>
+  </si>
+  <si>
+    <t>T3. Crear un endpoint que permita imprimir la salida por el idadelantovehiculo</t>
+  </si>
+  <si>
+    <t>T3. Crear un endpoint que permita imprimir la salida por el idsalidavehiculo</t>
+  </si>
+  <si>
+    <t>T3. Crear el endpoint para imprimir la encomienda por el idencomienda</t>
+  </si>
+  <si>
+    <t>Tabs de Registro de encomienda, se gestionara las encomiendas registrada por el ususario</t>
+  </si>
+  <si>
+    <t>T1. Se debe rastrear por el numero de guia y el codigo de guia de la boleta de la encomiendas</t>
+  </si>
+  <si>
+    <t>T2. Mostrar los estados de una encomienda y resaltar el actual</t>
+  </si>
+  <si>
+    <t>T3. Al no encontrar una encomienda con la guia y el codigo mostrar un mensaje de información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1. Agrega botón para enviar correo de registro de huéspedes en el modal de habitación </t>
+  </si>
+  <si>
+    <t>O. Nuevas funcionalidades al submódulo grid</t>
+  </si>
+  <si>
+    <t>T4. hacer endpoints donde muestre los reportes pdf de salidas del dia y arrivos del dia</t>
+  </si>
+  <si>
+    <t>O. Construcción de vista publica de rastreador de encomiendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O. Construcción de vista pública para el registro de huéspedes </t>
+  </si>
+  <si>
+    <t>Se debe pasar el id de reserva por url para mostrar la información de reserva</t>
+  </si>
+  <si>
+    <t>Si no existe id de reserva mostra un texto informativo</t>
+  </si>
+  <si>
+    <t>Mostrar los datos generales de la reserva "fecha, dias, usuario que la registro"</t>
+  </si>
+  <si>
+    <t>T5. Mostrar en un modal el pdf de reporte de salidas del día.</t>
+  </si>
+  <si>
+    <t>O. Creacion del endpoint para envio de correo sobre reservas</t>
+  </si>
+  <si>
+    <t>Implementar servidor smtp</t>
+  </si>
+  <si>
+    <t>Crear endpoint para el envio</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>O. Desplegar los proyectos Trade y Tampu</t>
+  </si>
+  <si>
+    <t>Crear la base de datos de trade y tampu en el hosting</t>
+  </si>
+  <si>
+    <t>Exportar las base de datos local y subirlas a la db del hosting</t>
+  </si>
+  <si>
+    <t>Subir los proyectos de backend a los subdominios (Trade= lamastours, Booking = tampu)</t>
+  </si>
+  <si>
+    <t>Conigurar las credenciales del la base de datos y el hosting en el .env de ambos proyectos</t>
+  </si>
+  <si>
+    <t>Probar el login con postmant</t>
+  </si>
+  <si>
+    <t>Configurar la url del api y la url donde estara desplegado los fronts</t>
+  </si>
+  <si>
+    <t>compilar los proyectos de react y subirlos al hosting en la raiz de cada subdominio</t>
+  </si>
+  <si>
+    <t>Configurar el htaccess</t>
+  </si>
+  <si>
+    <t>T2. Crear el crud de encomienda</t>
+  </si>
+  <si>
+    <t>validar que las encomiendas se muestren en los usuarios de la oficina de tarapoto,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar un registro desde la sucursal lamas, confirmar la recepcion desde la oficina de tarapoto, </t>
+  </si>
+  <si>
+    <t>Verificar que los reportes de dashboard muestren corectamente los datos.</t>
+  </si>
+  <si>
+    <t>verificar si ma impresión de la factura es correcto y que se muestre el detalle adicional</t>
+  </si>
+  <si>
+    <t>validar que se actualizen los estados de las encomiendas,</t>
+  </si>
+  <si>
+    <t>validar el pdf de impresión, que los nombres, fecha y monto sean los corectos</t>
+  </si>
+  <si>
+    <t>realizar la entrega de encomienda, validar el estado en la vista publica,</t>
+  </si>
+  <si>
+    <t>Validar que los correlativos de las salidas y adelantos se reinicie el contador cada dia</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear: el correlativo será incrementable por dia,  el correlativo comienza en 1 cada dia, </t>
+  </si>
+  <si>
+    <t>luego de registrar, mostrar el pdf de la salida para imprimir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar: listar las salida de los vehiculos que tienen el estado activo, nombre del chofer, </t>
+  </si>
+  <si>
+    <t>placa de cehiculo que conduce el monto, la fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear un motal para crear, editar la salida, el modal se desplegará luego de pulsar el </t>
+  </si>
+  <si>
+    <t>boton de registrar o en la accion de editar de la tabla</t>
+  </si>
+  <si>
+    <t>en la tabla se listaran los registros de salidas, adicional tendra las acciones de editar,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eliminar y imprimir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1. Crear la base de datos "salida_vehiculos" con los campos "idsalidavehiculo, idtransportista, </t>
+  </si>
+  <si>
+    <t>correlativo, monto, estado, fecha, iduser"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1. Crear la base de datos "adelanto_vehiculos" con los campos "idadelantovehiculo, idtransportista, </t>
+  </si>
+  <si>
+    <t>crear: el correlativo será incrementable por dia,  el correlativo comienza en 1 cada dia,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luego de registrar, mostrar el pdf de la salida para imprimir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar: listar los adelantos de los vehiculos que tienen el estado activo "nombre del </t>
+  </si>
+  <si>
+    <t>chofer, placa de vehiculo que conduce el monto y fecha"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en la tabla se listaran los registros de salidas, adicional tendra las acciones de editar, </t>
+  </si>
+  <si>
+    <t>T1. Crear la base de datos "encomienda" con los campos "idadelantovehiculo, idtransportista,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> correlativo, monto, estado, fecha, iduser"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crear:validar que la caja fue aperturada, luego de registrar, mostrar el pdf de la salida </t>
+  </si>
+  <si>
+    <t>para imprimir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listar: listar los adelantos de los vehiculos que tienen el estado activo "Acciones, </t>
+  </si>
+  <si>
+    <t>Comprobante, Remitente, DNI/RUC, Reg. Por, Transito, Fecha, Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de encomienda"</t>
+  </si>
+  <si>
+    <t>T4. Crear el submódulo de encomienda y asignar al modulo de procesos, la vista de encomientas</t>
+  </si>
+  <si>
+    <t>crear un motal para crear, editar la encomeinda, el modal se desplegará</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> luego de pulsar el boton de registrar o en la accion de editar de la tabla</t>
+  </si>
+  <si>
+    <t>en la tabla se listaran los registros de salidas, adicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tendra las acciones de editar, eliminar y imprimir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar: solo el usuario que registro la encomienda podar editarla el </t>
+  </si>
+  <si>
+    <t>resto solo podra ver los datos de la encomienda</t>
+  </si>
+  <si>
+    <t>Luego de cada registro o actualización recargar automaticamente los</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> datos de la tabla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabs de Encomiendas por llegar, se gestionara las encomiendas que tienen como </t>
+  </si>
+  <si>
+    <t>destino la sucursal del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1. Quitar los cards de venta de tours, habitaciones, ventas reservas en su lugar poner los tabs de </t>
+  </si>
+  <si>
+    <t>ventas de pasajes, encomiendas, venta de garage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2. Quitar los tabs de procimas llegadas y check-out en su lugar poner los tabs de proxima llegadas </t>
+  </si>
+  <si>
+    <t>de vehiculos, adelantos y salidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proxima llegadas, se mostrará las ultimas 12 proximas llegadas que tenga como </t>
+  </si>
+  <si>
+    <t>destino la sucursal del usuario, en la tabla mostrar</t>
+  </si>
+  <si>
+    <t>Al final del tabs de proximas llegas agregar un boton con el texto "Ver todas las</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> llegada" con dar click redirigir al submódulo de encomiendas.</t>
+  </si>
+  <si>
+    <t>Al final del tabs de adelantos y salidas agregar un boton con el texto "Ver todas las</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> salidas" con dar click redirigir al submódulo de salidas y agregar otro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boton con el texto Ver todos los adelantos" con dar click redirigir </t>
+  </si>
+  <si>
+    <t>al submódulo de adelantos</t>
+  </si>
+  <si>
+    <t>T1. Al agregar un producto quitar el codigo en su lugar poner un input donde se pueda ingresar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> un codigo adicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar contenar el detalle del producto con el detalle adicional al listar los items </t>
+  </si>
+  <si>
+    <t>al imprimir factura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2. cuando el estado de la habitación este en reserva preparar el boton para consumir </t>
+  </si>
+  <si>
+    <t>el endpoint que permitirá el envio del correo con la información de la reserva al usuario contacto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3. Hacer que el ancho de la grilla sea responsive para pantallas con resolución </t>
+  </si>
+  <si>
+    <t>de 1920 x 1080.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T6. Mostrar en un modal el pdf de reporte de parte diario donde se listan todos los </t>
+  </si>
+  <si>
+    <t>arrivos del dia.</t>
+  </si>
+  <si>
+    <t>Debajo de mostrar los datos generales, de cuerdo con el numero de huespedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adultos y niños mostrar los card donde se introduciran los datos de los huespedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sistema si el huesped es contacto solo mostrar la información del huesped los </t>
+  </si>
+  <si>
+    <t>demas se tendran que validar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al listar los huespedes se deben cargar todos los huespedes registrados desde </t>
+  </si>
+  <si>
+    <t>la grilla de booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los huespedes que no son contacto deben registrar su "nacionalidad, nombre, edad" </t>
+  </si>
+  <si>
+    <t>y tener un boton de registrar, luego de registrar los datos de los huespedes podran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ser editados.</t>
+  </si>
+  <si>
+    <t>Si la reserva tiene 3 huespedes y en la primera visita solo se registraron dos, la pagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> debe cargar los huespedes ya registrados y permitir registrar el que falta</t>
+  </si>
+  <si>
+    <t>Agregar un boton luego de los datos de los huespedes con el texto "Registrar reserva"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> el cual guardara todos los datos de la estancia y solo permitira ver la informacion de</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la estancia y los huespedes para futuras visitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El correo debe mostrar la imagen del hotel, una breve descripcion de contacto y el </t>
+  </si>
+  <si>
+    <t>link de registro de huespedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar un nuevo conductor, agregar dos encomiendas a la oficina de tarapoto conductor, </t>
+  </si>
+  <si>
+    <t>realizar un adelanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facturar un servicio de garaje y otro con (garaje y venta de pasaje), añadir una verde descripcion a </t>
+  </si>
+  <si>
+    <t>la venta de pasaje,</t>
+  </si>
+  <si>
+    <t>realizar una reserva como persona natural con 2 adultos y 1 niño, enviar correo de reserva al correo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "iomar.alegre@unas.edu.pe", validar si llega el correo a hotmail</t>
+  </si>
+  <si>
+    <t>Como usuario contacto, registrar el niño en la vista publica, actualizar pagina, registrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> el segundo adulto y registrar reserva</t>
+  </si>
+  <si>
+    <t>realizar una reserva como empresa con 2 adultos, enviar correo de reserva al correo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuario contacto, registrar el niño en la vista publica, actualizar pagina, registrar </t>
+  </si>
+  <si>
+    <t>el segundo adulto y registrar reserva</t>
+  </si>
+  <si>
+    <t>validar si llega el correo a gmail</t>
+  </si>
+  <si>
+    <t>realizar una reserva con 2 adultos y 1 niño, enviar correo de reserva al correo "iomarigor@gmail.com",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrar dos estancias, y dos reservas con fecha de hoy, hacer el check-out de una estancia, </t>
+  </si>
+  <si>
+    <t>validar los reportes de parte diario y de salidas</t>
+  </si>
+  <si>
+    <t>O. Depuración de errores en produccion</t>
+  </si>
+  <si>
+    <t>Identifiar y parsear los datos float en el proyecto de trade y booking</t>
+  </si>
+  <si>
+    <t>Identifiar y parsear los datos int en el proyecto de trade y booking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +647,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +687,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -148,13 +706,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,94 +1039,626 @@
   <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="N18" sqref="N18:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760BEE23-B4B6-4B37-B13A-732856FCFDEB}">
+  <dimension ref="C4:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7762324-7033-420A-A4C0-50374447514D}">
+  <dimension ref="B4:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEACABD4-90DD-4093-8482-DA45BD4B687F}">
+  <dimension ref="C4:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="8"/>
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="8"/>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="8"/>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="8"/>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="8"/>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="8"/>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B786222-D393-420C-9285-F05E87039689}">
+  <dimension ref="C4:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="8"/>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D98E6D-D99F-4E06-B3E6-43250954C357}">
+  <dimension ref="C4:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104FEFC0-9282-4A1E-89A6-22634037A390}">
+  <dimension ref="C6:E33"/>
+  <sheetViews>
+    <sheetView zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C5C2EC-E8F9-43EB-9DCA-422A01BB07B8}">
+  <dimension ref="C4:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -569,22 +1668,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7705D6E1-D842-485F-B4A7-D62E679D08AE}">
-  <dimension ref="C5:C6"/>
+  <dimension ref="C5:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4CE964-458B-47A7-B236-F0299F7B67DC}">
+  <dimension ref="C6:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -592,19 +1721,579 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4CE964-458B-47A7-B236-F0299F7B67DC}">
-  <dimension ref="C6"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729992ED-82AA-4739-AC02-7C045F46D3C0}">
+  <dimension ref="D6:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4479CD-AF62-48D5-81C8-57CB6ADD44ED}">
+  <dimension ref="C3:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>20</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131BF16B-1F75-4C76-9549-7812D5DB9437}">
+  <dimension ref="C3:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53150FDC-C0C7-4A37-91E9-15E89764915A}">
+  <dimension ref="C4:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7F3DC6-F433-4B5A-A225-C98E0951E8ED}">
+  <dimension ref="C4:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5977B33-34AB-4FB5-9DC6-524E7D033DEA}">
+  <dimension ref="C4:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
